--- a/FLOW CHART ASK UR Digram.xlsx
+++ b/FLOW CHART ASK UR Digram.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUSHIKESH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4BC70E-CA8E-49B8-9411-CC01128871E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EEDC02-0352-44B2-BF22-2CB1A97DAC75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{A7327C89-5CCE-4692-B931-265BEBF5A6A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="3" xr2:uid="{A7327C89-5CCE-4692-B931-265BEBF5A6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Patients Flow and Tables" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,19 +29,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Flow Digram</t>
   </si>
   <si>
     <t>Appointments</t>
   </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Sumbmit</t>
+  </si>
+  <si>
+    <t>Register User</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Blood Group</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>View Medical Record</t>
+  </si>
+  <si>
+    <t>AppointMent</t>
+  </si>
+  <si>
+    <t>Update PassWord</t>
+  </si>
+  <si>
+    <t>View And Update Medical Record</t>
+  </si>
+  <si>
+    <t>View Record</t>
+  </si>
+  <si>
+    <t>AppointMents</t>
+  </si>
+  <si>
+    <t>BooK Appointments</t>
+  </si>
+  <si>
+    <t>Show Current AppintMent</t>
+  </si>
+  <si>
+    <t>View Appointment Histoy</t>
+  </si>
+  <si>
+    <t>Doctor Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Doctor Selection</t>
+  </si>
+  <si>
+    <t>Doctor Degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialization </t>
+  </si>
+  <si>
+    <t>Consulting Fees</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>BooK Appintment</t>
+  </si>
+  <si>
+    <t>Book Appintment</t>
+  </si>
+  <si>
+    <t>9AM - 10 AM</t>
+  </si>
+  <si>
+    <t>10 AM - 11 AM</t>
+  </si>
+  <si>
+    <t>11 AM - 12 AM</t>
+  </si>
+  <si>
+    <t>Slot Booking</t>
+  </si>
+  <si>
+    <t>Show Current AppointMent</t>
+  </si>
+  <si>
+    <t>Appointment Infromation Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel Appointment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table - Patient </t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +191,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -71,13 +276,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,16 +1011,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:colOff>154577</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>158567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -666,8 +1035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="9753600"/>
-          <a:ext cx="1950720" cy="840740"/>
+          <a:off x="3755571" y="10384971"/>
+          <a:ext cx="1950720" cy="877025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -773,16 +1142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423455</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>58783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>119380</xdr:rowOff>
+      <xdr:colOff>545375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>10522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -797,8 +1166,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10873740" y="9768840"/>
-          <a:ext cx="1950720" cy="840740"/>
+          <a:off x="7194369" y="10607040"/>
+          <a:ext cx="1950720" cy="877025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1393,16 +1762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398417</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1420,8 +1789,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8976360" y="9349740"/>
-          <a:ext cx="38100" cy="403860"/>
+          <a:off x="4730931" y="9727111"/>
+          <a:ext cx="2291443" cy="657860"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1450,15 +1819,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>273232</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>179615</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>58783</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1470,13 +1839,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9014460" y="9349740"/>
-          <a:ext cx="2974340" cy="467360"/>
+          <a:off x="7044146" y="9727111"/>
+          <a:ext cx="1125583" cy="879929"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1891,6 +2260,69 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>272144</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BABEA6-14F5-4136-8A7C-D7022B6BCA2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11440886" y="11103429"/>
+          <a:ext cx="2917372" cy="1099457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800"/>
+            <a:t>Doctor Selection</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4722,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354F806A-2DA6-4848-BBEF-007B7FEC3137}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC45" sqref="AC45"/>
+    <sheetView topLeftCell="A24" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4785,4 +5217,744 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EBDF6-474D-432D-9CA5-120821070B6D}">
+  <dimension ref="A1:AW28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="4"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" spans="1:49" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="Q3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="7"/>
+      <c r="X3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="7"/>
+      <c r="AD3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+      <c r="AK3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="4"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="4"/>
+    </row>
+    <row r="4" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="7"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="7"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="7"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="7"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="7"/>
+    </row>
+    <row r="5" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="7"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="7"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="7"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="7"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="7"/>
+    </row>
+    <row r="6" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="7"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="7"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="7"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="7"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="7"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="7"/>
+    </row>
+    <row r="7" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="7"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="7"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="7"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="7"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="7"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="7"/>
+    </row>
+    <row r="8" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="7"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="7"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="7"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="7"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="7"/>
+      <c r="AR8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW8" s="7"/>
+    </row>
+    <row r="9" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="7"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="7"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="7"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="7"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="7"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="7"/>
+    </row>
+    <row r="10" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="7"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="13"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="7"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="7"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="7"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="7"/>
+      <c r="AR10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="7"/>
+    </row>
+    <row r="11" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="7"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="7"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="13"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="7"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="7"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="7"/>
+    </row>
+    <row r="12" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="7"/>
+      <c r="AD12" s="5"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="7"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="7"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="7"/>
+    </row>
+    <row r="13" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="7"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="13"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="7"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="13"/>
+    </row>
+    <row r="14" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="11"/>
+      <c r="G14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="13"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="13"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="7"/>
+    </row>
+    <row r="15" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="7"/>
+    </row>
+    <row r="16" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="7"/>
+    </row>
+    <row r="17" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="7"/>
+    </row>
+    <row r="18" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="7"/>
+    </row>
+    <row r="19" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="4"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP19" s="13"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="7"/>
+    </row>
+    <row r="21" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="7"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="7"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+    </row>
+    <row r="25" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="7"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="7"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="7"/>
+    </row>
+    <row r="28" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B08C9E5-38D1-402E-B865-A149EE313BD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FLOW CHART ASK UR Digram.xlsx
+++ b/FLOW CHART ASK UR Digram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EEDC02-0352-44B2-BF22-2CB1A97DAC75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AB6698-0638-40C6-B290-9DC06E473B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="3" xr2:uid="{A7327C89-5CCE-4692-B931-265BEBF5A6A3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>Flow Digram</t>
   </si>
@@ -157,19 +157,130 @@
     <t xml:space="preserve">Cancel Appointment </t>
   </si>
   <si>
-    <t xml:space="preserve">Table - Patient </t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t xml:space="preserve">int </t>
   </si>
   <si>
     <t>varchar</t>
   </si>
   <si>
-    <t>Enum</t>
+    <t>Patient Table</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Mob no.</t>
+  </si>
+  <si>
+    <t>Pid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did </t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State </t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialisation </t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Langauges</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>(age(cal))</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Registration Number</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Doctor Time Table</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Slot Duration</t>
+  </si>
+  <si>
+    <t>Break Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holidays </t>
+  </si>
+  <si>
+    <t>14:00:00-15:00:00</t>
+  </si>
+  <si>
+    <t>Appoint Book</t>
+  </si>
+  <si>
+    <t>Did</t>
+  </si>
+  <si>
+    <t>Time Slot</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Medica Record and History</t>
+  </si>
+  <si>
+    <t>Admin Table</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -218,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -447,6 +564,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3019,16 +3155,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>246016</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>202473</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>169817</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>367936</xdr:colOff>
+      <xdr:rowOff>115389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324393</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>116477</xdr:rowOff>
+      <xdr:rowOff>62049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3043,7 +3179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9999616" y="7016931"/>
+          <a:off x="10565673" y="6962503"/>
           <a:ext cx="1950720" cy="871946"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3814,9 +3950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>2176</xdr:colOff>
+      <xdr:colOff>568233</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>169817</xdr:rowOff>
+      <xdr:rowOff>115389</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3835,7 +3971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7713617" y="5866311"/>
-          <a:ext cx="3261359" cy="1150620"/>
+          <a:ext cx="3827416" cy="1096192"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4055,13 +4191,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>51435</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>173355</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -4078,8 +4214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="822960" y="3322320"/>
-          <a:ext cx="1950720" cy="840740"/>
+          <a:off x="661035" y="3288030"/>
+          <a:ext cx="1950720" cy="833120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4463,7 +4599,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>417195</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
     </xdr:from>
@@ -4489,8 +4625,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1798320" y="2823845"/>
-          <a:ext cx="2217420" cy="464185"/>
+          <a:off x="1636395" y="2823845"/>
+          <a:ext cx="2379345" cy="464185"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5178,11 +5314,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA79615-1009-4841-96BC-FF00CC43CD14}">
   <dimension ref="K29:L30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="29" spans="11:12" x14ac:dyDescent="0.3">
       <c r="L29" s="1" t="s">
@@ -5209,7 +5349,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5221,19 +5361,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EBDF6-474D-432D-9CA5-120821070B6D}">
-  <dimension ref="A1:AW28"/>
+  <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.77734375" bestFit="1" customWidth="1"/>
@@ -5789,7 +5939,7 @@
     </row>
     <row r="18" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK18" s="5"/>
       <c r="AL18" s="6"/>
@@ -5817,30 +5967,48 @@
       <c r="AP19" s="13"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G20" t="s">
+      <c r="K20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" s="26" t="s">
         <v>14</v>
       </c>
+      <c r="M20" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="6" t="s">
         <v>39</v>
@@ -5851,27 +6019,46 @@
       <c r="AH20" s="7"/>
     </row>
     <row r="21" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
+      <c r="A21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
@@ -5880,6 +6067,22 @@
       <c r="AH21" s="7"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="2" t="s">
         <v>40</v>
@@ -5890,6 +6093,22 @@
       <c r="AH22" s="7"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="6"/>
@@ -5898,6 +6117,24 @@
       <c r="AH23" s="7"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="6"/>
@@ -5906,6 +6143,54 @@
       <c r="AH24" s="7"/>
     </row>
     <row r="25" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="AC25" s="5"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="18"/>
@@ -5914,6 +6199,54 @@
       <c r="AH25" s="7"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="AC26" s="5"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
@@ -5939,6 +6272,227 @@
       <c r="AG28" s="18"/>
       <c r="AH28" s="13"/>
     </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B32" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="26">
+        <v>1</v>
+      </c>
+      <c r="C33" s="30">
+        <v>44531</v>
+      </c>
+      <c r="D33" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E33" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="26">
+        <v>30</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="26">
+        <v>1</v>
+      </c>
+      <c r="C34" s="30">
+        <v>44532</v>
+      </c>
+      <c r="D34" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E34" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F34" s="26">
+        <v>30</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="26">
+        <v>1</v>
+      </c>
+      <c r="C35" s="30">
+        <v>44533</v>
+      </c>
+      <c r="D35" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E35" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F35" s="26">
+        <v>30</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="26"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5950,7 +6504,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A3" sqref="A3:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FLOW CHART ASK UR Digram.xlsx
+++ b/FLOW CHART ASK UR Digram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AB6698-0638-40C6-B290-9DC06E473B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF5F11-7255-4454-89BC-CA8CE238F797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="3" xr2:uid="{A7327C89-5CCE-4692-B931-265BEBF5A6A3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="166">
   <si>
     <t>Flow Digram</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Experience</t>
   </si>
   <si>
-    <t>(age(cal))</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>Doctor Time Table</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Start Time</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>Break Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Holidays </t>
-  </si>
-  <si>
     <t>14:00:00-15:00:00</t>
   </si>
   <si>
@@ -281,13 +272,268 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Sarang</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>patil</t>
+  </si>
+  <si>
+    <t>Abc123</t>
+  </si>
+  <si>
+    <t>Yashwant Nagar</t>
+  </si>
+  <si>
+    <t>Karat</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>sarang.patil@gmail.com</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Mane</t>
+  </si>
+  <si>
+    <t>zxc123</t>
+  </si>
+  <si>
+    <t>Jaysinghraw Park</t>
+  </si>
+  <si>
+    <t>Dipak</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>kagal</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>akash.mane@gmail.com</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>Abhijeet</t>
+  </si>
+  <si>
+    <t>Dattratay</t>
+  </si>
+  <si>
+    <t>Tamhankar</t>
+  </si>
+  <si>
+    <t>Adt234</t>
+  </si>
+  <si>
+    <t>Yeshila park</t>
+  </si>
+  <si>
+    <t>Kolhapur</t>
+  </si>
+  <si>
+    <t>abhijeet.tamhankar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aniket </t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Ghodake</t>
+  </si>
+  <si>
+    <t>Asg456</t>
+  </si>
+  <si>
+    <t>Ghadage Mala</t>
+  </si>
+  <si>
+    <t>aniket.ghodake@gmail.com</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajirao </t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>Sbp123</t>
+  </si>
+  <si>
+    <t>Shivaji Nagar</t>
+  </si>
+  <si>
+    <t>sunil.patil@gmail.com</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>P0001</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>Amt123</t>
+  </si>
+  <si>
+    <t>Dmt123</t>
+  </si>
+  <si>
+    <t>Dvm345</t>
+  </si>
+  <si>
+    <t>San908</t>
+  </si>
+  <si>
+    <t>Baj208</t>
+  </si>
+  <si>
+    <t>BHMS</t>
+  </si>
+  <si>
+    <t>MBBS</t>
+  </si>
+  <si>
+    <t>Physio</t>
+  </si>
+  <si>
+    <t>Marathi,Hindi,English</t>
+  </si>
+  <si>
+    <t>Hindi.English</t>
+  </si>
+  <si>
+    <t>English,Marathi</t>
+  </si>
+  <si>
+    <t>Hindi,Marathi</t>
+  </si>
+  <si>
+    <t>10.30-11.30</t>
+  </si>
+  <si>
+    <t>11.00-11.30</t>
+  </si>
+  <si>
+    <t>12.00-12.30</t>
+  </si>
+  <si>
+    <t>D0001</t>
+  </si>
+  <si>
+    <t>D0002</t>
+  </si>
+  <si>
+    <t>D0003</t>
+  </si>
+  <si>
+    <t>D0004</t>
+  </si>
+  <si>
+    <t>D0005</t>
+  </si>
+  <si>
+    <t>slot duration =30</t>
+  </si>
+  <si>
+    <t>int slots[]=</t>
+  </si>
+  <si>
+    <t>if(i!=breakTime</t>
+  </si>
+  <si>
+    <t>{ , , ,  , , ,  , , };</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 for(</t>
+  </si>
+  <si>
+    <t>i+30)</t>
+  </si>
+  <si>
+    <t>i=08:00:00,</t>
+  </si>
+  <si>
+    <t>i&lt;18:00:00,</t>
+  </si>
+  <si>
+    <t>Total Slots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,8 +574,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +638,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -531,11 +791,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -567,24 +841,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5361,27 +5686,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EBDF6-474D-432D-9CA5-120821070B6D}">
-  <dimension ref="A1:AW59"/>
+  <dimension ref="A1:AW135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
     <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
@@ -5938,9 +6264,23 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="26" t="s">
         <v>44</v>
       </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
@@ -5949,6 +6289,21 @@
       <c r="AP18" s="7"/>
     </row>
     <row r="19" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
@@ -5967,48 +6322,48 @@
       <c r="AP19" s="13"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="F20" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="K20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="L20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="M20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="N20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="6" t="s">
         <v>39</v>
@@ -6019,46 +6374,48 @@
       <c r="AH20" s="7"/>
     </row>
     <row r="21" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
@@ -6067,22 +6424,48 @@
       <c r="AH21" s="7"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="A22" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="28">
+        <v>7845121783</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="44">
+        <v>36150</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="28">
+        <v>412512</v>
+      </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="2" t="s">
         <v>40</v>
@@ -6093,22 +6476,48 @@
       <c r="AH22" s="7"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="A23" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="28">
+        <v>9282278123</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="44">
+        <v>35418</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" s="28">
+        <v>416216</v>
+      </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="6"/>
@@ -6117,24 +6526,48 @@
       <c r="AH23" s="7"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="A24" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="28">
+        <v>8907851245</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="44">
+        <v>35395</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="28">
+        <v>416001</v>
+      </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="6"/>
@@ -6142,360 +6575,1507 @@
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
     </row>
-    <row r="25" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="O25" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" s="26" t="s">
-        <v>66</v>
+        <v>128</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="28">
+        <v>9875805660</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="44">
+        <v>36456</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="28">
+        <v>416216</v>
       </c>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="13"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="O26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>65</v>
+      <c r="A26" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="28">
+        <v>9045178703</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="44">
+        <v>36093</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" s="28">
+        <v>400500</v>
       </c>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="6"/>
+      <c r="AD26" s="5"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
+      <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="AD27" s="5"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
+      <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
     </row>
-    <row r="28" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="13"/>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="26"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+    </row>
+    <row r="29" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="7"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="7"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="28">
+        <v>412512</v>
+      </c>
+      <c r="K31" s="28">
+        <v>7888121783</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28">
+        <v>100</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>2</v>
+      </c>
+      <c r="R31" s="28">
+        <v>5165</v>
+      </c>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="7"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="28">
+        <v>416216</v>
+      </c>
+      <c r="K32" s="28">
+        <v>9282278123</v>
+      </c>
+      <c r="L32" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28">
+        <v>500</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" s="28">
+        <v>3</v>
+      </c>
+      <c r="R32" s="28">
+        <v>6555</v>
+      </c>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="7"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="28">
+        <v>416001</v>
+      </c>
+      <c r="K33" s="28">
+        <v>8907851245</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28">
+        <v>200</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>4</v>
+      </c>
+      <c r="R33" s="28">
+        <v>1566</v>
+      </c>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="7"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="28">
+        <v>416216</v>
+      </c>
+      <c r="K34" s="28">
+        <v>9875805660</v>
+      </c>
+      <c r="L34" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28">
+        <v>100</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>5</v>
+      </c>
+      <c r="R34" s="28">
+        <v>5161</v>
+      </c>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="7"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" s="28">
+        <v>400500</v>
+      </c>
+      <c r="K35" s="28">
+        <v>9045178703</v>
+      </c>
+      <c r="L35" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="N35" s="15"/>
+      <c r="O35" s="28">
+        <v>500</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>10</v>
+      </c>
+      <c r="R35" s="28">
+        <v>5551</v>
+      </c>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="7"/>
+    </row>
+    <row r="36" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="13"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="48" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
+      <c r="E40" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="G40" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B41" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="30">
+        <v>44531</v>
+      </c>
+      <c r="D41" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F41" s="32">
+        <v>30</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41" s="6">
+        <f>(18-8-1)*60/30</f>
+        <v>18</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B42" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="35">
+        <v>44532</v>
+      </c>
+      <c r="D42" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E42" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F42" s="37">
+        <v>30</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B43" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="35">
+        <v>44533</v>
+      </c>
+      <c r="D43" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E43" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F43" s="37">
+        <v>30</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" t="s">
+        <v>164</v>
+      </c>
+      <c r="K43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B44" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="35">
+        <v>44534</v>
+      </c>
+      <c r="D44" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E44" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F44" s="37">
+        <v>30</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="27"/>
+      <c r="I44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B45" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="35">
+        <v>44535</v>
+      </c>
+      <c r="D45" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E45" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F45" s="37">
+        <v>30</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" t="s">
+        <v>157</v>
+      </c>
+      <c r="J45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="40">
+        <v>44536</v>
+      </c>
+      <c r="D46" s="41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E46" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="F46" s="42">
+        <v>30</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" t="s">
+        <v>156</v>
+      </c>
+      <c r="J46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="30">
+        <v>44531</v>
+      </c>
+      <c r="D47" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E47" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F47" s="32">
+        <v>30</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B48" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="35">
+        <v>44532</v>
+      </c>
+      <c r="D48" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E48" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F48" s="37">
+        <v>30</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="35">
+        <v>44533</v>
+      </c>
+      <c r="D49" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E49" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F49" s="37">
+        <v>30</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="35">
+        <v>44534</v>
+      </c>
+      <c r="D50" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E50" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F50" s="37">
+        <v>30</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="49"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="35">
+        <v>44535</v>
+      </c>
+      <c r="D51" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E51" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F51" s="37">
+        <v>30</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="27"/>
+      <c r="I51" s="50"/>
+    </row>
+    <row r="52" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="40">
+        <v>44536</v>
+      </c>
+      <c r="D52" s="41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E52" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="F52" s="42">
+        <v>30</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="27"/>
+      <c r="I52" s="50"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="30">
+        <v>44531</v>
+      </c>
+      <c r="D53" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E53" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F53" s="32">
+        <v>30</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="27"/>
+      <c r="I53" s="50"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="35">
+        <v>44532</v>
+      </c>
+      <c r="D54" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E54" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F54" s="37">
+        <v>30</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="50"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="35">
+        <v>44533</v>
+      </c>
+      <c r="D55" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E55" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F55" s="37">
+        <v>30</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" s="27"/>
+      <c r="I55" s="50"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="35">
+        <v>44534</v>
+      </c>
+      <c r="D56" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E56" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F56" s="37">
+        <v>30</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="27"/>
+      <c r="I56" s="50"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="35">
+        <v>44535</v>
+      </c>
+      <c r="D57" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E57" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F57" s="37">
+        <v>30</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="27"/>
+      <c r="I57" s="50"/>
+    </row>
+    <row r="58" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="40">
+        <v>44536</v>
+      </c>
+      <c r="D58" s="41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E58" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="F58" s="42">
+        <v>30</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="30">
+        <v>44531</v>
+      </c>
+      <c r="D59" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E59" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F59" s="32">
+        <v>30</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="35">
+        <v>44532</v>
+      </c>
+      <c r="D60" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E60" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F60" s="37">
+        <v>30</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="35">
+        <v>44533</v>
+      </c>
+      <c r="D61" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E61" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F61" s="37">
+        <v>30</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="35">
+        <v>44534</v>
+      </c>
+      <c r="D62" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E62" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F62" s="37">
+        <v>30</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="35">
+        <v>44535</v>
+      </c>
+      <c r="D63" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E63" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F63" s="37">
+        <v>30</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="40">
+        <v>44536</v>
+      </c>
+      <c r="D64" s="41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E64" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="F64" s="42">
+        <v>30</v>
+      </c>
+      <c r="G64" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="27"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="30">
+        <v>44531</v>
+      </c>
+      <c r="D65" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E65" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F65" s="32">
+        <v>30</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="35">
+        <v>44532</v>
+      </c>
+      <c r="D66" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E66" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F66" s="37">
+        <v>30</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="35">
+        <v>44533</v>
+      </c>
+      <c r="D67" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E67" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F67" s="37">
+        <v>30</v>
+      </c>
+      <c r="G67" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="35">
+        <v>44534</v>
+      </c>
+      <c r="D68" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E68" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F68" s="37">
+        <v>30</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="35">
+        <v>44535</v>
+      </c>
+      <c r="D69" s="36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E69" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F69" s="37">
+        <v>30</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="40">
+        <v>44536</v>
+      </c>
+      <c r="D70" s="41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E70" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="F70" s="42">
+        <v>30</v>
+      </c>
+      <c r="G70" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="26"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="26"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="26"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="26"/>
+      <c r="B76" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="26" t="s">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="26"/>
+      <c r="B77" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="44">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="26"/>
+      <c r="B78" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" s="44">
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="26"/>
+      <c r="B79" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="44">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="26"/>
+      <c r="B80" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="44">
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="26"/>
+      <c r="B81" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81" s="44">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="26"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="26"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="26"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="26">
-        <v>1</v>
-      </c>
-      <c r="C33" s="30">
-        <v>44531</v>
-      </c>
-      <c r="D33" s="31">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E33" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="F33" s="26">
-        <v>30</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="26">
-        <v>1</v>
-      </c>
-      <c r="C34" s="30">
-        <v>44532</v>
-      </c>
-      <c r="D34" s="31">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E34" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="F34" s="26">
-        <v>30</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="26">
-        <v>1</v>
-      </c>
-      <c r="C35" s="30">
-        <v>44533</v>
-      </c>
-      <c r="D35" s="31">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E35" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="F35" s="26">
-        <v>30</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="26"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C126" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="26"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="D126" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s">
         <v>76</v>
       </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135" t="s">
+        <v>80</v>
+      </c>
+      <c r="C135" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="D135" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{0E7306D0-2C02-4EAC-8EAB-5FFDF0A38E29}"/>
+    <hyperlink ref="G23" r:id="rId2" xr:uid="{8A119443-5F28-45AA-B19A-04BF805D5D5A}"/>
+    <hyperlink ref="G24" r:id="rId3" xr:uid="{C875639B-B8C1-4757-AC92-B5F6071FF529}"/>
+    <hyperlink ref="G25" r:id="rId4" xr:uid="{7AF50037-44D1-4DB1-9BF0-1D06F3B6E456}"/>
+    <hyperlink ref="G26" r:id="rId5" xr:uid="{A697C389-73D1-47F8-84B4-D728B9F0D449}"/>
+    <hyperlink ref="L31" r:id="rId6" xr:uid="{5BB137A3-A2B0-4154-A8D4-0C731C8A2417}"/>
+    <hyperlink ref="L32" r:id="rId7" xr:uid="{83E09681-0577-4E6A-BCD8-8BD612F1CFF0}"/>
+    <hyperlink ref="L33" r:id="rId8" xr:uid="{A8E436F3-FB9C-4BE5-BFC7-7DF9B0F5B368}"/>
+    <hyperlink ref="L34" r:id="rId9" xr:uid="{B5510FF4-9959-4CAC-9354-46543BA3DCE8}"/>
+    <hyperlink ref="L35" r:id="rId10" xr:uid="{327D42CE-AACA-43E7-B3EB-0E9C19010F37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/FLOW CHART ASK UR Digram.xlsx
+++ b/FLOW CHART ASK UR Digram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF5F11-7255-4454-89BC-CA8CE238F797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A0C05-2A86-4F08-8ABD-CFF46841A71B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="3" xr2:uid="{A7327C89-5CCE-4692-B931-265BEBF5A6A3}"/>
   </bookViews>
@@ -5688,8 +5688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EBDF6-474D-432D-9CA5-120821070B6D}">
   <dimension ref="A1:AW135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
